--- a/testData/network_test_data.xlsx
+++ b/testData/network_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,18 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网关地址有误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此网段网卡已经配置，同一网段只需要配置一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仅能设置一个网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IP错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP填写正确，Mask正确，GATEWAY错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IP重复，Mask正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,14 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已设置网关，填写IP正确,MASK正确,GATEWAY正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅剩一张网卡，删除网卡会导致设备无法再连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,15 +147,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此网卡配置不存在，请重新选择要删除配置的网卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.2.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网卡删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关修改成功!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此网卡未配置，请重新选择要删除配置的网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.26.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,13 +630,29 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -649,10 +665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -660,10 +676,12 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
     <col min="6" max="6" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,36 +695,32 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -714,26 +728,24 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -745,10 +757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -783,10 +795,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -797,10 +809,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -811,7 +823,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -827,7 +839,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -845,13 +857,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -861,7 +873,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -879,59 +891,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>192</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
